--- a/aichan/497857181439569999_2021-03-03_23-00-08.xlsx
+++ b/aichan/497857181439569999_2021-03-03_23-00-08.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-04-29 16:41:11</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44315.6952662037</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -615,10 +629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-04-20 12:09:20</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44306.50648148148</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -686,10 +698,8 @@
           <t>4324412048</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-27 18:32:41</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44282.77269675926</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -757,10 +767,8 @@
           <t>4310154702</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:09:55</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44279.75688657408</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -836,10 +844,8 @@
           <t>4310154702</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:09:48</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44279.75680555555</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -915,10 +921,8 @@
           <t>4310154702</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-24 17:23:19</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44279.72452546296</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -994,10 +998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-24 14:11:32</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44279.59134259259</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1073,10 +1075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:25:05</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44275.76741898148</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1136,10 +1136,8 @@
           <t>4215300587</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:29:39</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44271.77059027777</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1211,10 +1209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-13 19:05:24</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44268.79541666667</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1274,10 +1270,8 @@
           <t>4215300587</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:49:34</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44261.86775462963</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1349,10 +1343,8 @@
           <t>4215300587</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-06 20:49:18</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44261.86756944445</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1424,10 +1416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:47:35</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44261.82471064815</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1495,10 +1485,8 @@
           <t>4227301522</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-06 15:28:09</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44261.64454861111</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1566,10 +1554,8 @@
           <t>4214681710</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-06 13:48:55</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44261.57563657407</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1645,10 +1631,8 @@
           <t>4215300587</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-06 10:56:22</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44261.45581018519</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1724,10 +1708,8 @@
           <t>4216500756</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-05 23:29:44</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44260.97898148148</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1799,10 +1781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:08:00</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44260.79722222222</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1870,10 +1850,8 @@
           <t>4222124789</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-05 14:32:42</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44260.60604166667</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1941,10 +1919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-05 14:31:42</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44260.60534722222</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2012,10 +1988,8 @@
           <t>4221235996</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:32:32</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44260.43925925926</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2084,10 +2058,8 @@
           <t>4221187473</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-05 10:15:55</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44260.42771990741</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2151,10 +2123,8 @@
           <t>4213559062</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-05 00:49:41</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44260.03450231482</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2214,10 +2184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-05 00:11:41</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44260.00811342592</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2289,10 +2257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-04 23:07:34</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44259.96358796296</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2352,10 +2318,8 @@
           <t>4219883620</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:59:21</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44259.95788194444</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2423,10 +2387,8 @@
           <t>4217130043</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:50:42</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44259.951875</v>
       </c>
       <c r="I28" t="n">
         <v>2</v>
@@ -2494,10 +2456,8 @@
           <t>4213490927</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:48:44</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44259.95050925926</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2565,10 +2525,8 @@
           <t>4218896207</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:40:30</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44259.81979166667</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2632,10 +2590,8 @@
           <t>4218081341</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-04 16:29:24</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44259.68708333333</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2699,10 +2655,8 @@
           <t>4215690306</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-04 15:42:13</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44259.65431712963</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2766,10 +2720,8 @@
           <t>4217545308</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:34:26</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44259.5655787037</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -2833,10 +2785,8 @@
           <t>4215300587</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:57:21</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44259.53982638889</v>
       </c>
       <c r="I34" t="n">
         <v>2</v>
@@ -2912,10 +2862,8 @@
           <t>4214681710</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-04 11:58:53</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44259.49922453704</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2987,10 +2935,8 @@
           <t>4217130043</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-04 11:57:48</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44259.49847222222</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3062,10 +3008,8 @@
           <t>4213463414</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-04 11:08:20</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44259.46412037037</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3129,10 +3073,8 @@
           <t>4216904019</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-04 10:53:02</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44259.45349537037</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3196,10 +3138,8 @@
           <t>4214446141</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-04 10:31:35</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44259.43859953704</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3271,10 +3211,8 @@
           <t>4213463414</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-04 10:31:06</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44259.43826388889</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3350,10 +3288,8 @@
           <t>4216846351</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-04 10:31:01</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44259.43820601852</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3425,10 +3361,8 @@
           <t>4213463414</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-04 10:25:34</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44259.4344212963</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3492,10 +3426,8 @@
           <t>4213463414</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-04 10:20:38</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44259.43099537037</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3559,10 +3491,8 @@
           <t>4213463414</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-04 10:18:24</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44259.42944444445</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3638,10 +3568,8 @@
           <t>4216802975</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-04 10:17:15</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44259.42864583333</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3717,10 +3645,8 @@
           <t>4216751328</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-04 09:59:11</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44259.41609953704</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3800,10 +3726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-04 09:58:01</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44259.41528935185</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3879,10 +3803,8 @@
           <t>4216614387</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-04 09:10:51</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44259.38253472222</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3950,10 +3872,8 @@
           <t>4216600178</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-04 08:59:39</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44259.37475694445</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4025,10 +3945,8 @@
           <t>4216500756</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-04 08:11:25</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44259.34126157407</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4092,10 +4010,8 @@
           <t>4216492987</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-04 08:08:39</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44259.33934027778</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4167,10 +4083,8 @@
           <t>4216402845</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-04 07:01:32</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44259.29273148148</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4234,10 +4148,8 @@
           <t>4216332109</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-04 05:06:11</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44259.21262731482</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4309,10 +4221,8 @@
           <t>4216336120</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-04 05:05:20</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44259.21203703704</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4384,10 +4294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-04 02:50:58</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44259.11872685186</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4451,10 +4359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-04 02:21:41</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44259.0983912037</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4526,10 +4432,8 @@
           <t>4215690306</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-04 02:18:56</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44259.09648148148</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -4597,10 +4501,8 @@
           <t>4214557336</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-04 01:14:39</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44259.05184027777</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4676,10 +4578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-03 23:55:31</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44258.99688657407</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4743,10 +4643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-03 23:46:58</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44258.99094907408</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4806,10 +4704,8 @@
           <t>4215690306</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-03 23:35:36</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44258.98305555555</v>
       </c>
       <c r="I61" t="n">
         <v>3</v>
@@ -4873,10 +4769,8 @@
           <t>4215300587</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-03 23:32:47</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44258.98109953704</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4952,10 +4846,8 @@
           <t>4215659719</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-03 23:31:40</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44258.98032407407</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5031,10 +4923,8 @@
           <t>4215589700</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-03 23:18:19</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44258.97105324074</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5110,10 +5000,8 @@
           <t>4214446141</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-03 23:02:16</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44258.95990740741</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5177,10 +5065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-03 23:00:51</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44258.95892361111</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5252,10 +5138,8 @@
           <t>4215423095</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-03 22:56:50</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44258.95613425926</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5331,10 +5215,8 @@
           <t>4214446141</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-03 22:55:21</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44258.95510416666</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5398,10 +5280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-03 22:50:46</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44258.9519212963</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5473,10 +5353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-03 22:49:42</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44258.95118055555</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5540,10 +5418,8 @@
           <t>4215423095</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-03 22:47:08</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44258.94939814815</v>
       </c>
       <c r="I71" t="n">
         <v>3</v>
@@ -5608,10 +5484,8 @@
           <t>4215300587</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-03 22:42:06</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44258.94590277778</v>
       </c>
       <c r="I72" t="n">
         <v>8</v>
@@ -5691,10 +5565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-03 22:37:39</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44258.9428125</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5754,10 +5626,8 @@
           <t>4215352539</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-03 22:33:41</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44258.94005787037</v>
       </c>
       <c r="I74" t="n">
         <v>3</v>
@@ -5834,10 +5704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-03 22:30:55</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44258.93813657408</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5908,10 +5776,8 @@
           <t>4215316092</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-03 22:25:37</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44258.93445601852</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5979,10 +5845,8 @@
           <t>4215300587</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-03 22:22:41</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44258.93241898148</v>
       </c>
       <c r="I77" t="n">
         <v>3</v>
@@ -6054,10 +5918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-03 22:22:09</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44258.93204861111</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6125,10 +5987,8 @@
           <t>4215234945</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-03 22:13:08</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44258.92578703703</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6200,10 +6060,8 @@
           <t>4215233539</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-03 22:12:20</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44258.92523148148</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6279,10 +6137,8 @@
           <t>4214939427</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-03 21:42:11</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44258.90429398148</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6358,10 +6214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-03 21:39:18</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44258.90229166667</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6429,10 +6283,8 @@
           <t>4213709623</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-03 21:30:19</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44258.89605324074</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6500,10 +6352,8 @@
           <t>4214939427</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-03 21:14:01</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44258.88473379629</v>
       </c>
       <c r="I84" t="n">
         <v>2</v>
@@ -6575,10 +6425,8 @@
           <t>4214919416</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-03 21:09:57</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44258.88190972222</v>
       </c>
       <c r="I85" t="n">
         <v>11</v>
@@ -6650,10 +6498,8 @@
           <t>4214738435</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-03 20:32:21</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44258.85579861111</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6725,10 +6571,8 @@
           <t>4214696526</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-03 20:31:28</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44258.85518518519</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6804,10 +6648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-03 20:30:02</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44258.85418981482</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6883,10 +6725,8 @@
           <t>4214727391</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-03 20:28:48</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44258.85333333333</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6962,10 +6802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-03 20:25:39</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44258.85114583333</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7029,10 +6867,8 @@
           <t>4214698364</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-03 20:23:06</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44258.849375</v>
       </c>
       <c r="I91" t="n">
         <v>33</v>
@@ -7108,10 +6944,8 @@
           <t>4214696526</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-03 20:21:55</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44258.84855324074</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -7187,10 +7021,8 @@
           <t>4214681710</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-03 20:18:54</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44258.84645833333</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7266,10 +7098,8 @@
           <t>4214644188</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-03 20:11:11</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44258.84109953704</v>
       </c>
       <c r="I94" t="n">
         <v>2</v>
@@ -7341,10 +7171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-03 20:08:07</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44258.83896990741</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7420,10 +7248,8 @@
           <t>4214557336</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-03 19:52:40</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44258.82824074074</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7487,10 +7313,8 @@
           <t>4214477066</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-03 19:51:07</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44258.82716435185</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7566,10 +7390,8 @@
           <t>4214273581</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-03 19:50:40</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44258.82685185185</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7645,10 +7467,8 @@
           <t>4214492890</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-03 19:39:43</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44258.81924768518</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7724,10 +7544,8 @@
           <t>4214478293</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-03 19:36:51</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44258.81725694444</v>
       </c>
       <c r="I100" t="n">
         <v>6</v>
@@ -7803,10 +7621,8 @@
           <t>4214477066</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-03 19:36:02</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44258.81668981481</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7882,10 +7698,8 @@
           <t>4214476511</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-03 19:35:40</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44258.81643518519</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7961,10 +7775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-03 19:34:04</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44258.81532407407</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8032,10 +7844,8 @@
           <t>4214446141</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-03 19:28:59</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44258.81179398148</v>
       </c>
       <c r="I104" t="n">
         <v>2</v>
@@ -8099,10 +7909,8 @@
           <t>4214396636</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-03 19:28:21</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44258.81135416667</v>
       </c>
       <c r="I105" t="n">
         <v>19</v>
@@ -8174,10 +7982,8 @@
           <t>4214408022</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-03 19:21:02</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44258.80627314815</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8253,10 +8059,8 @@
           <t>4214396636</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-03 19:19:42</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44258.80534722222</v>
       </c>
       <c r="I107" t="n">
         <v>26</v>
@@ -8328,10 +8132,8 @@
           <t>4214393226</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-03 19:18:08</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44258.80425925926</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8408,10 +8210,8 @@
           <t>4213868808</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-03 19:17:03</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44258.80350694444</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -8479,10 +8279,8 @@
           <t>4214386244</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-03 19:16:24</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44258.80305555555</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8550,10 +8348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-03 19:14:04</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44258.80143518518</v>
       </c>
       <c r="I111" t="n">
         <v>5</v>
@@ -8625,10 +8421,8 @@
           <t>4214352992</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-03 19:11:07</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44258.79938657407</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8704,10 +8498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-03 19:10:20</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44258.79884259259</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8775,10 +8567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-03 19:04:55</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44258.79508101852</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8846,10 +8636,8 @@
           <t>4214273581</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-03 18:54:14</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44258.78766203704</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8921,10 +8709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-03 18:52:48</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44258.78666666667</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8996,10 +8782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-03 18:52:05</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44258.78616898148</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9064,10 +8848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-03 18:50:49</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44258.78528935185</v>
       </c>
       <c r="I118" t="n">
         <v>408</v>
@@ -9131,10 +8913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-03 18:49:19</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44258.78424768519</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9210,10 +8990,8 @@
           <t>4214234324</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-03 18:46:04</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44258.78199074074</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9285,10 +9063,8 @@
           <t>4214156171</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-03 18:45:06</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44258.78131944445</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9364,10 +9140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-03 18:43:27</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44258.78017361111</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9442,10 +9216,8 @@
           <t>4214156171</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-03 18:28:18</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44258.76965277778</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -9517,10 +9289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-03 18:23:16</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44258.76615740741</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9584,10 +9354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-03 18:19:21</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44258.7634375</v>
       </c>
       <c r="I125" t="n">
         <v>3</v>
@@ -9651,10 +9419,8 @@
           <t>4214107571</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-03 18:19:06</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44258.76326388889</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9730,10 +9496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-03 18:18:10</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44258.76261574074</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9801,10 +9565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-03 18:15:08</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44258.76050925926</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9872,10 +9634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-03 18:13:08</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44258.75912037037</v>
       </c>
       <c r="I129" t="n">
         <v>35</v>
@@ -9939,10 +9699,8 @@
           <t>4214050957</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-03 18:06:27</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44258.75447916667</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10006,10 +9764,8 @@
           <t>4214029294</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-03 18:03:34</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44258.75247685185</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10078,10 +9834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-03 18:03:10</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44258.75219907407</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -10149,10 +9903,8 @@
           <t>4213987611</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-03 17:52:57</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44258.74510416666</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10224,10 +9976,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-03 17:50:23</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44258.74332175926</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10299,10 +10049,8 @@
           <t>4213783422</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-03 17:43:13</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44258.7383449074</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10370,10 +10118,8 @@
           <t>4213910298</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-03 17:34:00</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44258.73194444444</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10441,10 +10187,8 @@
           <t>4213839698</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-03 17:33:26</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44258.73155092593</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10520,10 +10264,8 @@
           <t>4213905213</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-03 17:33:14</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44258.73141203704</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10591,10 +10333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-03 17:33:05</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44258.73130787037</v>
       </c>
       <c r="I139" t="n">
         <v>2</v>
@@ -10666,10 +10406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-03 17:32:07</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44258.73063657407</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10745,10 +10483,8 @@
           <t>4213868808</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-03 17:25:43</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44258.72619212963</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10824,10 +10560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-03 17:24:06</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44258.72506944444</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -10906,10 +10640,8 @@
           <t>4213854565</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-03 17:22:38</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44258.72405092593</v>
       </c>
       <c r="I143" t="n">
         <v>9</v>
@@ -10977,10 +10709,8 @@
           <t>4213839698</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-03 17:18:53</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44258.72144675926</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -11052,10 +10782,8 @@
           <t>4213772150</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-03 17:14:05</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44258.71811342592</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11131,10 +10859,8 @@
           <t>4213813494</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-03 17:13:05</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44258.71741898148</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11210,10 +10936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-03 17:12:05</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44258.71672453704</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11277,10 +11001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-03 17:11:23</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44258.71623842593</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11356,10 +11078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-03 17:10:21</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44258.71552083334</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11427,10 +11147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-03 17:10:13</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44258.71542824074</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11506,10 +11224,8 @@
           <t>4213796613</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-03 17:07:47</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44258.71373842593</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11581,10 +11297,8 @@
           <t>4213783422</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-03 17:05:17</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44258.71200231482</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11660,10 +11374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-03 17:01:10</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44258.70914351852</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -11735,10 +11447,8 @@
           <t>4213772150</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-03 17:00:26</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44258.70863425926</v>
       </c>
       <c r="I154" t="n">
         <v>6</v>
@@ -11814,10 +11524,8 @@
           <t>4213709623</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:57:06</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44258.70631944444</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11881,10 +11589,8 @@
           <t>4213756584</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:55:58</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44258.70553240741</v>
       </c>
       <c r="I156" t="n">
         <v>3</v>
@@ -11960,10 +11666,8 @@
           <t>4213738089</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:53:02</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44258.70349537037</v>
       </c>
       <c r="I157" t="n">
         <v>2</v>
@@ -12035,10 +11739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:51:01</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44258.70209490741</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12110,10 +11812,8 @@
           <t>4213728899</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:49:51</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44258.70128472222</v>
       </c>
       <c r="I159" t="n">
         <v>2</v>
@@ -12189,10 +11889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:47:32</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44258.69967592593</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -12264,10 +11962,8 @@
           <t>4213725433</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:46:59</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44258.69929398148</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12331,10 +12027,8 @@
           <t>4213709623</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:46:07</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44258.69869212963</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12402,10 +12096,8 @@
           <t>4213711909</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:43:59</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44258.69721064815</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12481,10 +12173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:43:30</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44258.696875</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12548,10 +12238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:43:13</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44258.69667824074</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12615,10 +12303,8 @@
           <t>4213692668</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:40:04</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44258.69449074074</v>
       </c>
       <c r="I166" t="n">
         <v>4</v>
@@ -12694,10 +12380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:39:09</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44258.69385416667</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12773,10 +12457,8 @@
           <t>4213695404</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:38:23</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44258.69332175926</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12848,10 +12530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:36:22</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44258.6919212963</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12911,10 +12591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:36:09</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44258.69177083333</v>
       </c>
       <c r="I170" t="n">
         <v>22</v>
@@ -12982,10 +12660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:35:18</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44258.69118055556</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13061,10 +12737,8 @@
           <t>4213676176</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:34:13</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44258.69042824074</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13141,10 +12815,8 @@
           <t>4213664487</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:32:42</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44258.689375</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13216,10 +12888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:30:31</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44258.68785879629</v>
       </c>
       <c r="I174" t="n">
         <v>41</v>
@@ -13287,10 +12957,8 @@
           <t>4213665659</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:29:41</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44258.68728009259</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13362,10 +13030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:28:43</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44258.6866087963</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13429,10 +13095,8 @@
           <t>4213654503</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:28:38</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44258.68655092592</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13529,10 +13193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:27:29</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44258.68575231481</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13600,10 +13262,8 @@
           <t>4213574208</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:26:18</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44258.68493055556</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13675,10 +13335,8 @@
           <t>4213574208</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:25:17</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44258.68422453704</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -13746,10 +13404,8 @@
           <t>4213629281</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:20:15</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44258.68072916667</v>
       </c>
       <c r="I181" t="n">
         <v>3</v>
@@ -13817,10 +13473,8 @@
           <t>4213406859</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:16:58</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44258.67844907408</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -13884,10 +13538,8 @@
           <t>4213406859</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:16:48</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44258.67833333334</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13951,10 +13603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:16:07</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44258.6778587963</v>
       </c>
       <c r="I184" t="n">
         <v>8</v>
@@ -14037,10 +13687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:15:37</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44258.67751157407</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14108,10 +13756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:15:23</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44258.67734953704</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14183,10 +13829,8 @@
           <t>4213603092</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:14:42</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44258.676875</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14258,10 +13902,8 @@
           <t>4213599666</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:14:37</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44258.67681712963</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14333,10 +13975,8 @@
           <t>4213603092</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:13:25</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44258.6759837963</v>
       </c>
       <c r="I189" t="n">
         <v>30</v>
@@ -14412,10 +14052,8 @@
           <t>4213606964</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:12:41</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44258.67547453703</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14491,10 +14129,8 @@
           <t>4213606468</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:12:14</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44258.67516203703</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14558,10 +14194,8 @@
           <t>4213599829</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:11:42</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44258.67479166666</v>
       </c>
       <c r="I192" t="n">
         <v>4</v>
@@ -14625,10 +14259,8 @@
           <t>4213599666</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:11:33</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44258.6746875</v>
       </c>
       <c r="I193" t="n">
         <v>6</v>
@@ -14704,10 +14336,8 @@
           <t>4213594452</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:10:26</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44258.67391203704</v>
       </c>
       <c r="I194" t="n">
         <v>9</v>
@@ -14783,10 +14413,8 @@
           <t>4213594368</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:10:21</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44258.67385416666</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14862,10 +14490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:09:53</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44258.67353009259</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14939,10 +14565,8 @@
           <t>4213571122</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:09:38</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44258.67335648148</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -15010,10 +14634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:06:03</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44258.67086805555</v>
       </c>
       <c r="I198" t="n">
         <v>385</v>
@@ -15085,10 +14707,8 @@
           <t>4213579450</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:05:56</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44258.67078703704</v>
       </c>
       <c r="I199" t="n">
         <v>3</v>
@@ -15160,10 +14780,8 @@
           <t>4213579023</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:05:31</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44258.67049768518</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -15235,10 +14853,8 @@
           <t>4213574208</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:05:26</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44258.67043981481</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15314,10 +14930,8 @@
           <t>4213582733</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:05:14</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44258.67030092593</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15393,10 +15007,8 @@
           <t>4213577155</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:03:50</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44258.66932870371</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -15468,10 +15080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:03:31</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44258.6691087963</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15539,10 +15149,8 @@
           <t>4213571122</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:02:37</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44258.6684837963</v>
       </c>
       <c r="I205" t="n">
         <v>27</v>
@@ -15614,10 +15222,8 @@
           <t>4213564702</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:01:17</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44258.66755787037</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -15693,10 +15299,8 @@
           <t>4213559062</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:00:49</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44258.6672337963</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -15764,10 +15368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-03 16:00:03</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44258.66670138889</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
@@ -15843,10 +15445,8 @@
           <t>4213566929</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:59:49</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44258.66653935185</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15914,10 +15514,8 @@
           <t>4213406859</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:58:51</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44258.66586805556</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15989,10 +15587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:58:50</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44258.66585648148</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -16064,10 +15660,8 @@
           <t>4213565443</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:58:21</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44258.66552083333</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16131,10 +15725,8 @@
           <t>4213561175</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:57:52</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44258.66518518519</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16198,10 +15790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:56:30</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44258.66423611111</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16277,10 +15867,8 @@
           <t>4213406859</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:55:46</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44258.66372685185</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16348,10 +15936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:55:19</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44258.66341435185</v>
       </c>
       <c r="I216" t="n">
         <v>188</v>
@@ -16415,10 +16001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:55:12</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44258.66333333333</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16494,10 +16078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:54:35</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44258.66290509259</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16569,10 +16151,8 @@
           <t>4213518377</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:51:56</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44258.66106481481</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16640,10 +16220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:51:38</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44258.66085648148</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16703,10 +16281,8 @@
           <t>4213406859</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:51:16</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44258.66060185185</v>
       </c>
       <c r="I221" t="n">
         <v>4</v>
@@ -16778,10 +16354,8 @@
           <t>4213406859</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:50:59</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44258.6604050926</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16849,10 +16423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:50:14</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44258.65988425926</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16924,10 +16496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:47:48</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44258.65819444445</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
@@ -16995,10 +16565,8 @@
           <t>4213518377</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:47:05</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44258.65769675926</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -17074,10 +16642,8 @@
           <t>4213518377</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:45:03</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44258.65628472222</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -17145,10 +16711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:43:38</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44258.65530092592</v>
       </c>
       <c r="I227" t="n">
         <v>126</v>
@@ -17224,10 +16788,8 @@
           <t>4213520292</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:43:08</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44258.65495370371</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17303,10 +16865,8 @@
           <t>4213515697</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:42:25</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44258.65445601852</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17378,10 +16938,8 @@
           <t>4213509444</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:42:19</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44258.65438657408</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17445,10 +17003,8 @@
           <t>4213510339</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:41:35</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44258.65387731481</v>
       </c>
       <c r="I231" t="n">
         <v>5</v>
@@ -17524,10 +17080,8 @@
           <t>4213504019</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:40:43</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44258.65327546297</v>
       </c>
       <c r="I232" t="n">
         <v>4</v>
@@ -17603,10 +17157,8 @@
           <t>4213503477</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:40:10</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44258.65289351852</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17678,10 +17230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:40:02</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44258.65280092593</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17758,10 +17308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:39:21</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44258.65232638889</v>
       </c>
       <c r="I235" t="n">
         <v>9</v>
@@ -17825,10 +17373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:36:55</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44258.65063657407</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17896,10 +17442,8 @@
           <t>4213406859</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:36:19</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44258.65021990741</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17963,10 +17507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:36:12</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44258.65013888889</v>
       </c>
       <c r="I238" t="n">
         <v>1</v>
@@ -18042,10 +17584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:34:38</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44258.64905092592</v>
       </c>
       <c r="I239" t="n">
         <v>3</v>
@@ -18113,10 +17653,8 @@
           <t>4213490927</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:33:46</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44258.64844907408</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18184,10 +17722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:33:43</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44258.64841435185</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18259,10 +17795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:32:33</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44258.64760416667</v>
       </c>
       <c r="I242" t="n">
         <v>1</v>
@@ -18338,10 +17872,8 @@
           <t>4213479636</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:32:32</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44258.64759259259</v>
       </c>
       <c r="I243" t="n">
         <v>5</v>
@@ -18409,10 +17941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:31:17</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44258.64672453704</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18480,10 +18010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:27:57</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44258.64440972222</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18559,10 +18087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:27:46</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44258.6442824074</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18630,10 +18156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:27:44</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44258.64425925926</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
@@ -18709,10 +18233,8 @@
           <t>4213466492</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:27:27</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44258.6440625</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18788,10 +18310,8 @@
           <t>4213464262</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:27:10</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44258.64386574074</v>
       </c>
       <c r="I249" t="n">
         <v>70</v>
@@ -18868,10 +18388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:26:25</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44258.64334490741</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18935,10 +18453,8 @@
           <t>4213463414</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:26:21</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44258.64329861111</v>
       </c>
       <c r="I251" t="n">
         <v>49</v>
@@ -19002,10 +18518,8 @@
           <t>4213459847</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:26:20</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44258.64328703703</v>
       </c>
       <c r="I252" t="n">
         <v>27</v>
@@ -19077,10 +18591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:25:26</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44258.64266203704</v>
       </c>
       <c r="I253" t="n">
         <v>1</v>
@@ -19158,10 +18670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:25:23</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44258.64262731482</v>
       </c>
       <c r="I254" t="n">
         <v>4</v>
@@ -19237,10 +18747,8 @@
           <t>4213428782</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:25:13</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44258.64251157407</v>
       </c>
       <c r="I255" t="n">
         <v>1</v>
@@ -19304,10 +18812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:25:08</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44258.6424537037</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19371,10 +18877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:24:08</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44258.64175925926</v>
       </c>
       <c r="I257" t="n">
         <v>1</v>
@@ -19442,10 +18946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:21:44</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44258.64009259259</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19514,10 +19016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:21:28</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44258.63990740741</v>
       </c>
       <c r="I259" t="n">
         <v>284</v>
@@ -19593,10 +19093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:21:08</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44258.63967592592</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19672,10 +19170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:20:23</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44258.63915509259</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19754,10 +19250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:19:13</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44258.63834490741</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19833,10 +19327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:19:10</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44258.63831018518</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19904,10 +19396,8 @@
           <t>4213428782</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:18:18</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44258.63770833334</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19983,10 +19473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:18:01</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44258.63751157407</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -20062,10 +19550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:17:55</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44258.63744212963</v>
       </c>
       <c r="I266" t="n">
         <v>1</v>
@@ -20142,10 +19628,8 @@
           <t>4213434563</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:17:26</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44258.63710648148</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20221,10 +19705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:17:10</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44258.6369212963</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -20292,10 +19774,8 @@
           <t>4213428782</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:16:56</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44258.63675925926</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20359,10 +19839,8 @@
           <t>4213422323</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:16:31</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44258.6364699074</v>
       </c>
       <c r="I270" t="n">
         <v>1</v>
@@ -20426,10 +19904,8 @@
           <t>4213435469</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:16:10</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44258.63622685185</v>
       </c>
       <c r="I271" t="n">
         <v>4</v>
@@ -20493,10 +19969,8 @@
           <t>4213429088</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:15:32</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44258.63578703703</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20560,10 +20034,8 @@
           <t>4213428782</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:15:13</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44258.63556712963</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20639,10 +20111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:14:34</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44258.63511574074</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20706,10 +20176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:14:06</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44258.63479166666</v>
       </c>
       <c r="I275" t="n">
         <v>2</v>
@@ -20785,10 +20253,8 @@
           <t>4213427464</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:13:53</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44258.6346412037</v>
       </c>
       <c r="I276" t="n">
         <v>15</v>
@@ -20856,10 +20322,8 @@
           <t>4213422878</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:13:25</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44258.63431712963</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20935,10 +20399,8 @@
           <t>4213422323</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:12:48</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44258.63388888889</v>
       </c>
       <c r="I278" t="n">
         <v>30</v>
@@ -21006,10 +20468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:12:16</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44258.63351851852</v>
       </c>
       <c r="I279" t="n">
         <v>1</v>
@@ -21081,10 +20541,8 @@
           <t>4213419578</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:12:12</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44258.63347222222</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -21148,10 +20606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:11:56</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44258.63328703704</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21211,10 +20667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:10:44</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44258.63245370371</v>
       </c>
       <c r="I282" t="n">
         <v>5</v>
@@ -21282,10 +20736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:10:33</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44258.63232638889</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21353,10 +20805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:10:30</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44258.63229166667</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21416,10 +20866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:10:23</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44258.63221064815</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21491,10 +20939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:09:47</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44258.63179398148</v>
       </c>
       <c r="I286" t="n">
         <v>23</v>
@@ -21566,10 +21012,8 @@
           <t>4213413378</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:09:40</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44258.63171296296</v>
       </c>
       <c r="I287" t="n">
         <v>1</v>
@@ -21629,10 +21073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:08:52</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44258.63115740741</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21704,10 +21146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:08:19</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44258.63077546296</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21779,10 +21219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:07:34</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44258.63025462963</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21846,10 +21284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:07:33</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44258.63024305556</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21921,10 +21357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:07:10</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44258.62997685185</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -22000,10 +21434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:07:03</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44258.62989583334</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -22067,10 +21499,8 @@
           <t>4213406859</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:06:56</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44258.62981481481</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -22146,10 +21576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:06:48</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44258.62972222222</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22218,10 +21646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:05:38</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44258.62891203703</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -22285,10 +21711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:05:22</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44258.62872685185</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
@@ -22364,10 +21788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:05:13</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44258.62862268519</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22431,10 +21853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:05:13</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44258.62862268519</v>
       </c>
       <c r="I299" t="n">
         <v>1</v>
@@ -22506,10 +21926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:03:42</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44258.62756944444</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22585,10 +22003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:02:53</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44258.62700231482</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22656,10 +22072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:02:52</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44258.62699074074</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22735,10 +22149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:02:49</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44258.62695601852</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22810,10 +22222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:02:42</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44258.626875</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22889,10 +22299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:02:34</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44258.62678240741</v>
       </c>
       <c r="I305" t="n">
         <v>1</v>
@@ -22964,10 +22372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:02:25</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44258.62667824074</v>
       </c>
       <c r="I306" t="n">
         <v>1</v>
@@ -23036,10 +22442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:01:56</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44258.62634259259</v>
       </c>
       <c r="I307" t="n">
         <v>28</v>
@@ -23107,10 +22511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:01:49</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44258.62626157407</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23186,10 +22588,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:01:39</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44258.62614583333</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23265,10 +22665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:01:38</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44258.62613425926</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23336,10 +22734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:01:28</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44258.62601851852</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23411,10 +22807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:01:28</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44258.62601851852</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -23490,10 +22884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:01:21</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44258.6259375</v>
       </c>
       <c r="I313" t="n">
         <v>1</v>
@@ -23565,10 +22957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:01:13</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44258.62584490741</v>
       </c>
       <c r="I314" t="n">
         <v>1</v>
@@ -23636,10 +23026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:01:10</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44258.62581018519</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23715,10 +23103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:01:07</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44258.62577546296</v>
       </c>
       <c r="I316" t="n">
         <v>722</v>
@@ -23786,10 +23172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:01:05</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44258.62575231482</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23861,10 +23245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:00:54</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44258.625625</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23940,10 +23322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:00:29</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44258.62533564815</v>
       </c>
       <c r="I319" t="n">
         <v>1</v>
@@ -24019,10 +23399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-03 15:00:21</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44258.62524305555</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
